--- a/data.xlsx
+++ b/data.xlsx
@@ -6,18 +6,18 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="记录事件" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="nongtt" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="liusx" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="162913" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <name val="等线"/>
       <family val="2"/>
@@ -48,6 +48,12 @@
       <name val="宋体"/>
       <charset val="134"/>
       <family val="3"/>
+      <color rgb="FF000000"/>
+      <sz val="12"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <family val="2"/>
       <color rgb="FF000000"/>
       <sz val="12"/>
     </font>
@@ -87,7 +93,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
@@ -102,6 +108,9 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -447,10 +456,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E27"/>
+  <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A27"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
@@ -461,91 +470,78 @@
     <col width="6" bestFit="1" customWidth="1" min="5" max="5"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.6" customHeight="1">
+    <row r="1">
       <c r="A1" t="inlineStr">
         <is>
+          <t>分数</t>
+        </is>
+      </c>
+      <c r="B1" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" ht="15.6" customHeight="1">
+      <c r="A2" t="inlineStr">
+        <is>
           <t>索引</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B2" s="1" t="inlineStr">
         <is>
           <t>事务</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C2" s="1" t="inlineStr">
         <is>
           <t>范围</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D2" s="1" t="inlineStr">
         <is>
           <t>频率</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="E2" s="2" t="inlineStr">
         <is>
           <t>分数</t>
         </is>
-      </c>
-    </row>
-    <row r="2" ht="15.6" customHeight="1">
-      <c r="A2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="inlineStr">
-        <is>
-          <t>做饭</t>
-        </is>
-      </c>
-      <c r="C2" s="1" t="inlineStr">
-        <is>
-          <t>洗米煮饭</t>
-        </is>
-      </c>
-      <c r="D2" s="1" t="inlineStr">
-        <is>
-          <t>1天1次</t>
-        </is>
-      </c>
-      <c r="E2" s="2" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="3" ht="15.6" customHeight="1">
       <c r="A3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="inlineStr">
+        <is>
+          <t>做饭</t>
+        </is>
+      </c>
+      <c r="C3" s="1" t="inlineStr">
+        <is>
+          <t>洗米煮饭</t>
+        </is>
+      </c>
+      <c r="D3" s="1" t="inlineStr">
+        <is>
+          <t>1天1次</t>
+        </is>
+      </c>
+      <c r="E3" s="2" t="n">
         <v>2</v>
-      </c>
-      <c r="B3" s="1" t="inlineStr">
-        <is>
-          <t>做菜</t>
-        </is>
-      </c>
-      <c r="C3" s="1" t="inlineStr">
-        <is>
-          <t>切菜炒菜</t>
-        </is>
-      </c>
-      <c r="D3" s="1" t="inlineStr">
-        <is>
-          <t>1天1次</t>
-        </is>
-      </c>
-      <c r="E3" s="2" t="n">
-        <v>6</v>
       </c>
     </row>
     <row r="4" ht="15.6" customHeight="1">
       <c r="A4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1" t="inlineStr">
         <is>
-          <t>收拾厨房</t>
+          <t>做菜</t>
         </is>
       </c>
       <c r="C4" s="1" t="inlineStr">
         <is>
-          <t>洗锅，擦桌子和厨房，最后用洗洁精清洗抹布</t>
+          <t>切菜炒菜</t>
         </is>
       </c>
       <c r="D4" s="1" t="inlineStr">
@@ -554,21 +550,21 @@
         </is>
       </c>
       <c r="E4" s="2" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" ht="15.6" customHeight="1">
       <c r="A5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="inlineStr">
         <is>
-          <t>洗碗</t>
+          <t>收拾厨房</t>
         </is>
       </c>
       <c r="C5" s="1" t="inlineStr">
         <is>
-          <t>洗吃饭的碗</t>
+          <t>洗锅，擦桌子和厨房，最后用洗洁精清洗抹布</t>
         </is>
       </c>
       <c r="D5" s="1" t="inlineStr">
@@ -582,16 +578,16 @@
     </row>
     <row r="6" ht="15.6" customHeight="1">
       <c r="A6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1" t="inlineStr">
         <is>
-          <t>烧水</t>
+          <t>洗碗</t>
         </is>
       </c>
       <c r="C6" s="1" t="inlineStr">
         <is>
-          <t>烧水和装到保温瓶</t>
+          <t>洗吃饭的碗</t>
         </is>
       </c>
       <c r="D6" s="1" t="inlineStr">
@@ -600,21 +596,21 @@
         </is>
       </c>
       <c r="E6" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" ht="15.6" customHeight="1">
       <c r="A7" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1" t="inlineStr">
         <is>
-          <t>洗饭盒</t>
+          <t>烧水</t>
         </is>
       </c>
       <c r="C7" s="1" t="inlineStr">
         <is>
-          <t>清洗俩个饭盒</t>
+          <t>烧水和装到保温瓶</t>
         </is>
       </c>
       <c r="D7" s="1" t="inlineStr">
@@ -623,21 +619,21 @@
         </is>
       </c>
       <c r="E7" s="2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" ht="15.6" customHeight="1">
       <c r="A8" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1" t="inlineStr">
         <is>
-          <t>装饭</t>
+          <t>洗饭盒</t>
         </is>
       </c>
       <c r="C8" s="1" t="inlineStr">
         <is>
-          <t>两个饭盒装饭菜</t>
+          <t>清洗俩个饭盒</t>
         </is>
       </c>
       <c r="D8" s="1" t="inlineStr">
@@ -646,21 +642,21 @@
         </is>
       </c>
       <c r="E8" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" ht="15.6" customHeight="1">
       <c r="A9" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1" t="inlineStr">
         <is>
-          <t>拖地</t>
+          <t>装饭</t>
         </is>
       </c>
       <c r="C9" s="1" t="inlineStr">
         <is>
-          <t>拖地，起码洗拖把两遍，拖完地上没有污垢和头发</t>
+          <t>两个饭盒装饭菜</t>
         </is>
       </c>
       <c r="D9" s="1" t="inlineStr">
@@ -669,21 +665,21 @@
         </is>
       </c>
       <c r="E9" s="2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" ht="15.6" customHeight="1">
       <c r="A10" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1" t="inlineStr">
         <is>
-          <t>整理被子</t>
+          <t>拖地</t>
         </is>
       </c>
       <c r="C10" s="1" t="inlineStr">
         <is>
-          <t>摆放整齐，碰酒精，捡头发</t>
+          <t>拖地，起码洗拖把两遍，拖完地上没有污垢和头发</t>
         </is>
       </c>
       <c r="D10" s="1" t="inlineStr">
@@ -692,21 +688,21 @@
         </is>
       </c>
       <c r="E10" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" ht="15.6" customHeight="1">
       <c r="A11" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1" t="inlineStr">
         <is>
-          <t>换垃圾袋</t>
+          <t>整理被子</t>
         </is>
       </c>
       <c r="C11" s="1" t="inlineStr">
         <is>
-          <t>装两个垃圾袋换新的</t>
+          <t>摆放整齐，碰酒精，捡头发</t>
         </is>
       </c>
       <c r="D11" s="1" t="inlineStr">
@@ -720,16 +716,16 @@
     </row>
     <row r="12" ht="15.6" customHeight="1">
       <c r="A12" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1" t="inlineStr">
         <is>
-          <t>晾衣服</t>
+          <t>换垃圾袋</t>
         </is>
       </c>
       <c r="C12" s="1" t="inlineStr">
         <is>
-          <t>大件衣服优先晾里面，小件晾厕所</t>
+          <t>装两个垃圾袋换新的</t>
         </is>
       </c>
       <c r="D12" s="1" t="inlineStr">
@@ -738,21 +734,21 @@
         </is>
       </c>
       <c r="E12" s="2" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" ht="15.6" customHeight="1">
       <c r="A13" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1" t="inlineStr">
         <is>
-          <t>收衣服</t>
+          <t>晾衣服</t>
         </is>
       </c>
       <c r="C13" s="1" t="inlineStr">
         <is>
-          <t>衣服收到柜子，袜子放抽屉</t>
+          <t>大件衣服优先晾里面，小件晾厕所</t>
         </is>
       </c>
       <c r="D13" s="1" t="inlineStr">
@@ -761,21 +757,21 @@
         </is>
       </c>
       <c r="E13" s="2" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="14" ht="15.6" customHeight="1">
       <c r="A14" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1" t="inlineStr">
         <is>
-          <t>做早餐</t>
+          <t>收衣服</t>
         </is>
       </c>
       <c r="C14" s="1" t="inlineStr">
         <is>
-          <t>煮粥煮饺子</t>
+          <t>衣服收到柜子，袜子放抽屉</t>
         </is>
       </c>
       <c r="D14" s="1" t="inlineStr">
@@ -784,72 +780,76 @@
         </is>
       </c>
       <c r="E14" s="2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" ht="15.6" customHeight="1">
       <c r="A15" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" s="1" t="inlineStr">
+        <is>
+          <t>做早餐</t>
+        </is>
+      </c>
+      <c r="C15" s="1" t="inlineStr">
+        <is>
+          <t>煮粥煮饺子</t>
+        </is>
+      </c>
+      <c r="D15" s="1" t="inlineStr">
+        <is>
+          <t>1天1次</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" ht="15.6" customHeight="1">
+      <c r="A16" t="n">
         <v>14</v>
       </c>
-      <c r="B15" s="1" t="inlineStr">
+      <c r="B16" s="1" t="inlineStr">
         <is>
           <t>清洗电饭煲</t>
         </is>
       </c>
-      <c r="C15" s="1" t="inlineStr">
+      <c r="C16" s="1" t="inlineStr">
         <is>
           <t>内胆饭的残渣和电饭煲表面擦拭</t>
         </is>
       </c>
-      <c r="D15" s="1" t="inlineStr">
-        <is>
-          <t>1天1次</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" ht="32.4" customHeight="1">
-      <c r="A16" t="n">
-        <v>15</v>
-      </c>
-      <c r="B16" s="3" t="n"/>
-      <c r="C16" s="3" t="n"/>
-      <c r="D16" s="3" t="n"/>
-      <c r="E16" s="4" t="n"/>
+      <c r="D16" s="1" t="inlineStr">
+        <is>
+          <t>1天1次</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="17" ht="32.4" customHeight="1">
       <c r="A17" t="n">
-        <v>16</v>
-      </c>
-      <c r="B17" s="1" t="inlineStr">
-        <is>
-          <t>清洗杯子</t>
-        </is>
-      </c>
-      <c r="C17" s="1" t="inlineStr">
-        <is>
-          <t>两个喝水的被子</t>
-        </is>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="B17" s="3" t="n"/>
+      <c r="C17" s="3" t="n"/>
       <c r="D17" s="3" t="n"/>
-      <c r="E17" s="2" t="n">
-        <v>1</v>
-      </c>
+      <c r="E17" s="4" t="n"/>
     </row>
     <row r="18" ht="32.4" customHeight="1">
       <c r="A18" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1" t="inlineStr">
         <is>
-          <t>买菜</t>
+          <t>清洗杯子</t>
         </is>
       </c>
       <c r="C18" s="1" t="inlineStr">
         <is>
-          <t>网购、线下</t>
+          <t>两个喝水的被子</t>
         </is>
       </c>
       <c r="D18" s="3" t="n"/>
@@ -859,193 +859,259 @@
     </row>
     <row r="19" ht="32.4" customHeight="1">
       <c r="A19" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1" t="inlineStr">
         <is>
-          <t>取快递</t>
+          <t>买菜</t>
         </is>
       </c>
       <c r="C19" s="1" t="inlineStr">
         <is>
-          <t>取快递，取菜</t>
+          <t>网购、线下</t>
         </is>
       </c>
       <c r="D19" s="3" t="n"/>
       <c r="E19" s="2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" ht="32.4" customHeight="1">
       <c r="A20" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1" t="inlineStr">
         <is>
-          <t>拆快递</t>
+          <t>取快递</t>
         </is>
       </c>
       <c r="C20" s="1" t="inlineStr">
         <is>
-          <t>拆好摆放好，清理好快递垃圾</t>
+          <t>取快递，取菜</t>
         </is>
       </c>
       <c r="D20" s="3" t="n"/>
       <c r="E20" s="2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" ht="15.6" customHeight="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" ht="32.4" customHeight="1">
       <c r="A21" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1" t="inlineStr">
         <is>
-          <t>擦灰</t>
+          <t>拆快递</t>
         </is>
       </c>
       <c r="C21" s="1" t="inlineStr">
         <is>
-          <t>办公桌、投影仪、烤箱上、衣柜里底部</t>
-        </is>
-      </c>
-      <c r="D21" s="1" t="inlineStr">
-        <is>
-          <t>1周1次</t>
-        </is>
-      </c>
+          <t>拆好摆放好，清理好快递垃圾</t>
+        </is>
+      </c>
+      <c r="D21" s="3" t="n"/>
       <c r="E21" s="2" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="22" ht="15.6" customHeight="1">
       <c r="A22" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1" t="inlineStr">
         <is>
-          <t>洗被单</t>
+          <t>擦灰</t>
         </is>
       </c>
       <c r="C22" s="1" t="inlineStr">
         <is>
-          <t>洗垫的床单并晒好，干了收起来，套好</t>
+          <t>办公桌、投影仪、烤箱上、衣柜里底部</t>
         </is>
       </c>
       <c r="D22" s="1" t="inlineStr">
         <is>
-          <t>3周1次</t>
+          <t>1周1次</t>
         </is>
       </c>
       <c r="E22" s="2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" ht="15.6" customHeight="1">
       <c r="A23" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" s="1" t="inlineStr">
+        <is>
+          <t>洗被单</t>
+        </is>
+      </c>
+      <c r="C23" s="1" t="inlineStr">
+        <is>
+          <t>洗垫的床单并晒好，干了收起来，套好</t>
+        </is>
+      </c>
+      <c r="D23" s="1" t="inlineStr">
+        <is>
+          <t>3周1次</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" ht="15.6" customHeight="1">
+      <c r="A24" t="n">
         <v>22</v>
       </c>
-      <c r="B23" s="1" t="inlineStr">
+      <c r="B24" s="1" t="inlineStr">
         <is>
           <t>洗床单枕套</t>
         </is>
       </c>
-      <c r="C23" s="1" t="inlineStr">
+      <c r="C24" s="1" t="inlineStr">
         <is>
           <t>洗盖的被单并晒好，干了收起来，套好</t>
         </is>
       </c>
-      <c r="D23" s="1" t="inlineStr">
+      <c r="D24" s="1" t="inlineStr">
         <is>
           <t>3周1次</t>
         </is>
       </c>
-      <c r="E23" s="2" t="n">
+      <c r="E24" s="2" t="n">
         <v>5</v>
-      </c>
-    </row>
-    <row r="24" ht="32.4" customHeight="1">
-      <c r="A24" t="n">
-        <v>23</v>
-      </c>
-      <c r="B24" s="1" t="inlineStr">
-        <is>
-          <t>削水果</t>
-        </is>
-      </c>
-      <c r="C24" s="1" t="inlineStr">
-        <is>
-          <t>削两人份水果</t>
-        </is>
-      </c>
-      <c r="D24" s="3" t="n"/>
-      <c r="E24" s="2" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="25" ht="32.4" customHeight="1">
       <c r="A25" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1" t="inlineStr">
         <is>
-          <t>修缮物品―</t>
+          <t>削水果</t>
         </is>
       </c>
       <c r="C25" s="1" t="inlineStr">
         <is>
-          <t>家具维修或布置安装</t>
+          <t>削两人份水果</t>
         </is>
       </c>
       <c r="D25" s="3" t="n"/>
       <c r="E25" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" ht="32.4" customHeight="1">
+      <c r="A26" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" s="1" t="inlineStr">
+        <is>
+          <t>修缮物品―</t>
+        </is>
+      </c>
+      <c r="C26" s="1" t="inlineStr">
+        <is>
+          <t>家具维修或布置安装</t>
+        </is>
+      </c>
+      <c r="D26" s="3" t="n"/>
+      <c r="E26" s="2" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="26" ht="15.6" customHeight="1">
-      <c r="A26" t="n">
+    <row r="27" ht="15.6" customHeight="1">
+      <c r="A27" t="n">
         <v>25</v>
       </c>
-      <c r="B26" s="1" t="inlineStr">
+      <c r="B27" s="1" t="inlineStr">
         <is>
           <t>洗手间大扫防</t>
         </is>
       </c>
-      <c r="C26" s="1" t="inlineStr">
+      <c r="C27" s="1" t="inlineStr">
         <is>
           <t>刷墙面、洗衣机表面、刷马桶、刷墙角，冲洗污渍</t>
         </is>
       </c>
-      <c r="D26" s="1" t="inlineStr">
+      <c r="D27" s="1" t="inlineStr">
         <is>
           <t>3周1次</t>
-        </is>
-      </c>
-      <c r="E26" s="2" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="27" ht="16.2" customHeight="1">
-      <c r="A27" t="n">
-        <v>26</v>
-      </c>
-      <c r="B27" s="1" t="inlineStr">
-        <is>
-          <t>洗鞋</t>
-        </is>
-      </c>
-      <c r="C27" s="5" t="inlineStr">
-        <is>
-          <t>洗对方的鞋，按双算</t>
-        </is>
-      </c>
-      <c r="D27" s="1" t="inlineStr">
-        <is>
-          <t>1月1次</t>
         </is>
       </c>
       <c r="E27" s="2" t="n">
         <v>4</v>
+      </c>
+    </row>
+    <row r="28" ht="16.2" customHeight="1">
+      <c r="A28" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" s="1" t="inlineStr">
+        <is>
+          <t>洗鞋</t>
+        </is>
+      </c>
+      <c r="C28" s="5" t="inlineStr">
+        <is>
+          <t>洗对方的鞋，按双算</t>
+        </is>
+      </c>
+      <c r="D28" s="1" t="inlineStr">
+        <is>
+          <t>1月1次</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" ht="15.6" customHeight="1">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>编号</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+      <c r="C30" s="6" t="inlineStr">
+        <is>
+          <t>事情</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>0</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>2022年11月17日23点40分27秒</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>做饭</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>1</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>2022年11月17日23点40分46秒</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>做菜</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -1060,23 +1126,650 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
+  <cols>
+    <col width="15.33203125" bestFit="1" customWidth="1" min="2" max="2"/>
+    <col width="54.33203125" bestFit="1" customWidth="1" min="3" max="3"/>
+    <col width="8.21875" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="6" bestFit="1" customWidth="1" min="5" max="5"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>ntt洗饭盒2022年11月13日20点30分48秒</t>
+          <t>分数</t>
+        </is>
+      </c>
+      <c r="B1" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" ht="15.6" customHeight="1">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>索引</t>
+        </is>
+      </c>
+      <c r="B2" s="1" t="inlineStr">
+        <is>
+          <t>事务</t>
+        </is>
+      </c>
+      <c r="C2" s="1" t="inlineStr">
+        <is>
+          <t>范围</t>
+        </is>
+      </c>
+      <c r="D2" s="1" t="inlineStr">
+        <is>
+          <t>频率</t>
+        </is>
+      </c>
+      <c r="E2" s="2" t="inlineStr">
+        <is>
+          <t>分数</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="15.6" customHeight="1">
+      <c r="A3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="inlineStr">
+        <is>
+          <t>做饭</t>
+        </is>
+      </c>
+      <c r="C3" s="1" t="inlineStr">
+        <is>
+          <t>洗米煮饭</t>
+        </is>
+      </c>
+      <c r="D3" s="1" t="inlineStr">
+        <is>
+          <t>1天1次</t>
+        </is>
+      </c>
+      <c r="E3" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" ht="15.6" customHeight="1">
+      <c r="A4" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="inlineStr">
+        <is>
+          <t>做菜</t>
+        </is>
+      </c>
+      <c r="C4" s="1" t="inlineStr">
+        <is>
+          <t>切菜炒菜</t>
+        </is>
+      </c>
+      <c r="D4" s="1" t="inlineStr">
+        <is>
+          <t>1天1次</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" ht="15.6" customHeight="1">
+      <c r="A5" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1" t="inlineStr">
+        <is>
+          <t>收拾厨房</t>
+        </is>
+      </c>
+      <c r="C5" s="1" t="inlineStr">
+        <is>
+          <t>洗锅，擦桌子和厨房，最后用洗洁精清洗抹布</t>
+        </is>
+      </c>
+      <c r="D5" s="1" t="inlineStr">
+        <is>
+          <t>1天1次</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" ht="15.6" customHeight="1">
+      <c r="A6" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1" t="inlineStr">
+        <is>
+          <t>洗碗</t>
+        </is>
+      </c>
+      <c r="C6" s="1" t="inlineStr">
+        <is>
+          <t>洗吃饭的碗</t>
+        </is>
+      </c>
+      <c r="D6" s="1" t="inlineStr">
+        <is>
+          <t>1天1次</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" ht="15.6" customHeight="1">
+      <c r="A7" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1" t="inlineStr">
+        <is>
+          <t>烧水</t>
+        </is>
+      </c>
+      <c r="C7" s="1" t="inlineStr">
+        <is>
+          <t>烧水和装到保温瓶</t>
+        </is>
+      </c>
+      <c r="D7" s="1" t="inlineStr">
+        <is>
+          <t>1天1次</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" ht="15.6" customHeight="1">
+      <c r="A8" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1" t="inlineStr">
+        <is>
+          <t>洗饭盒</t>
+        </is>
+      </c>
+      <c r="C8" s="1" t="inlineStr">
+        <is>
+          <t>清洗俩个饭盒</t>
+        </is>
+      </c>
+      <c r="D8" s="1" t="inlineStr">
+        <is>
+          <t>1天1次</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" ht="15.6" customHeight="1">
+      <c r="A9" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="inlineStr">
+        <is>
+          <t>装饭</t>
+        </is>
+      </c>
+      <c r="C9" s="1" t="inlineStr">
+        <is>
+          <t>两个饭盒装饭菜</t>
+        </is>
+      </c>
+      <c r="D9" s="1" t="inlineStr">
+        <is>
+          <t>1天1次</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" ht="15.6" customHeight="1">
+      <c r="A10" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1" t="inlineStr">
+        <is>
+          <t>拖地</t>
+        </is>
+      </c>
+      <c r="C10" s="1" t="inlineStr">
+        <is>
+          <t>拖地，起码洗拖把两遍，拖完地上没有污垢和头发</t>
+        </is>
+      </c>
+      <c r="D10" s="1" t="inlineStr">
+        <is>
+          <t>1天1次</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" ht="15.6" customHeight="1">
+      <c r="A11" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1" t="inlineStr">
+        <is>
+          <t>整理被子</t>
+        </is>
+      </c>
+      <c r="C11" s="1" t="inlineStr">
+        <is>
+          <t>摆放整齐，碰酒精，捡头发</t>
+        </is>
+      </c>
+      <c r="D11" s="1" t="inlineStr">
+        <is>
+          <t>1天1次</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" ht="15.6" customHeight="1">
+      <c r="A12" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" s="1" t="inlineStr">
+        <is>
+          <t>换垃圾袋</t>
+        </is>
+      </c>
+      <c r="C12" s="1" t="inlineStr">
+        <is>
+          <t>装两个垃圾袋换新的</t>
+        </is>
+      </c>
+      <c r="D12" s="1" t="inlineStr">
+        <is>
+          <t>1天1次</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" ht="15.6" customHeight="1">
+      <c r="A13" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" s="1" t="inlineStr">
+        <is>
+          <t>晾衣服</t>
+        </is>
+      </c>
+      <c r="C13" s="1" t="inlineStr">
+        <is>
+          <t>大件衣服优先晾里面，小件晾厕所</t>
+        </is>
+      </c>
+      <c r="D13" s="1" t="inlineStr">
+        <is>
+          <t>1天1次</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="n">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="14" ht="15.6" customHeight="1">
+      <c r="A14" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" s="1" t="inlineStr">
+        <is>
+          <t>收衣服</t>
+        </is>
+      </c>
+      <c r="C14" s="1" t="inlineStr">
+        <is>
+          <t>衣服收到柜子，袜子放抽屉</t>
+        </is>
+      </c>
+      <c r="D14" s="1" t="inlineStr">
+        <is>
+          <t>1天1次</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" ht="15.6" customHeight="1">
+      <c r="A15" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" s="1" t="inlineStr">
+        <is>
+          <t>做早餐</t>
+        </is>
+      </c>
+      <c r="C15" s="1" t="inlineStr">
+        <is>
+          <t>煮粥煮饺子</t>
+        </is>
+      </c>
+      <c r="D15" s="1" t="inlineStr">
+        <is>
+          <t>1天1次</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" ht="15.6" customHeight="1">
+      <c r="A16" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" s="1" t="inlineStr">
+        <is>
+          <t>清洗电饭煲</t>
+        </is>
+      </c>
+      <c r="C16" s="1" t="inlineStr">
+        <is>
+          <t>内胆饭的残渣和电饭煲表面擦拭</t>
+        </is>
+      </c>
+      <c r="D16" s="1" t="inlineStr">
+        <is>
+          <t>1天1次</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" ht="32.4" customHeight="1">
+      <c r="A17" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" s="3" t="n"/>
+      <c r="C17" s="3" t="n"/>
+      <c r="D17" s="3" t="n"/>
+      <c r="E17" s="4" t="n"/>
+    </row>
+    <row r="18" ht="32.4" customHeight="1">
+      <c r="A18" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" s="1" t="inlineStr">
+        <is>
+          <t>清洗杯子</t>
+        </is>
+      </c>
+      <c r="C18" s="1" t="inlineStr">
+        <is>
+          <t>两个喝水的被子</t>
+        </is>
+      </c>
+      <c r="D18" s="3" t="n"/>
+      <c r="E18" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" ht="32.4" customHeight="1">
+      <c r="A19" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" s="1" t="inlineStr">
+        <is>
+          <t>买菜</t>
+        </is>
+      </c>
+      <c r="C19" s="1" t="inlineStr">
+        <is>
+          <t>网购、线下</t>
+        </is>
+      </c>
+      <c r="D19" s="3" t="n"/>
+      <c r="E19" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" ht="32.4" customHeight="1">
+      <c r="A20" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" s="1" t="inlineStr">
+        <is>
+          <t>取快递</t>
+        </is>
+      </c>
+      <c r="C20" s="1" t="inlineStr">
+        <is>
+          <t>取快递，取菜</t>
+        </is>
+      </c>
+      <c r="D20" s="3" t="n"/>
+      <c r="E20" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" ht="32.4" customHeight="1">
+      <c r="A21" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" s="1" t="inlineStr">
+        <is>
+          <t>拆快递</t>
+        </is>
+      </c>
+      <c r="C21" s="1" t="inlineStr">
+        <is>
+          <t>拆好摆放好，清理好快递垃圾</t>
+        </is>
+      </c>
+      <c r="D21" s="3" t="n"/>
+      <c r="E21" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" ht="15.6" customHeight="1">
+      <c r="A22" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" s="1" t="inlineStr">
+        <is>
+          <t>擦灰</t>
+        </is>
+      </c>
+      <c r="C22" s="1" t="inlineStr">
+        <is>
+          <t>办公桌、投影仪、烤箱上、衣柜里底部</t>
+        </is>
+      </c>
+      <c r="D22" s="1" t="inlineStr">
+        <is>
+          <t>1周1次</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" ht="15.6" customHeight="1">
+      <c r="A23" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" s="1" t="inlineStr">
+        <is>
+          <t>洗被单</t>
+        </is>
+      </c>
+      <c r="C23" s="1" t="inlineStr">
+        <is>
+          <t>洗垫的床单并晒好，干了收起来，套好</t>
+        </is>
+      </c>
+      <c r="D23" s="1" t="inlineStr">
+        <is>
+          <t>3周1次</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" ht="15.6" customHeight="1">
+      <c r="A24" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" s="1" t="inlineStr">
+        <is>
+          <t>洗床单枕套</t>
+        </is>
+      </c>
+      <c r="C24" s="1" t="inlineStr">
+        <is>
+          <t>洗盖的被单并晒好，干了收起来，套好</t>
+        </is>
+      </c>
+      <c r="D24" s="1" t="inlineStr">
+        <is>
+          <t>3周1次</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" ht="32.4" customHeight="1">
+      <c r="A25" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" s="1" t="inlineStr">
+        <is>
+          <t>削水果</t>
+        </is>
+      </c>
+      <c r="C25" s="1" t="inlineStr">
+        <is>
+          <t>削两人份水果</t>
+        </is>
+      </c>
+      <c r="D25" s="3" t="n"/>
+      <c r="E25" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" ht="32.4" customHeight="1">
+      <c r="A26" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" s="1" t="inlineStr">
+        <is>
+          <t>修缮物品―</t>
+        </is>
+      </c>
+      <c r="C26" s="1" t="inlineStr">
+        <is>
+          <t>家具维修或布置安装</t>
+        </is>
+      </c>
+      <c r="D26" s="3" t="n"/>
+      <c r="E26" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" ht="15.6" customHeight="1">
+      <c r="A27" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" s="1" t="inlineStr">
+        <is>
+          <t>洗手间大扫防</t>
+        </is>
+      </c>
+      <c r="C27" s="1" t="inlineStr">
+        <is>
+          <t>刷墙面、洗衣机表面、刷马桶、刷墙角，冲洗污渍</t>
+        </is>
+      </c>
+      <c r="D27" s="1" t="inlineStr">
+        <is>
+          <t>3周1次</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" ht="16.2" customHeight="1">
+      <c r="A28" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" s="1" t="inlineStr">
+        <is>
+          <t>洗鞋</t>
+        </is>
+      </c>
+      <c r="C28" s="5" t="inlineStr">
+        <is>
+          <t>洗对方的鞋，按双算</t>
+        </is>
+      </c>
+      <c r="D28" s="1" t="inlineStr">
+        <is>
+          <t>1月1次</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" ht="15.6" customHeight="1">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>编号</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+      <c r="C30" s="6" t="inlineStr">
+        <is>
+          <t>事情</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>0</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>2022年11月17日23点42分06秒</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>做饭</t>
         </is>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/data.xlsx
+++ b/data.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="nongtt" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="liusx" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="nongtt" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="liusx" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -456,10 +456,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E32"/>
+  <dimension ref="A1:E34"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="B1" t="n">
-        <v>8</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" ht="15.6" customHeight="1">
@@ -1086,11 +1086,11 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>2022年11月17日23点40分27秒</t>
+          <t>2022年11月18日22点35分06秒</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1101,16 +1101,46 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>2022年11月17日23点40分46秒</t>
+          <t>2022年11月18日22点35分25秒</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
           <t>做菜</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>3</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>2022年11月18日22点35分41秒</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>收拾厨房</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>4</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>2022年11月18日22点35分42秒</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>洗碗</t>
         </is>
       </c>
     </row>
@@ -1126,10 +1156,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
@@ -1147,7 +1177,7 @@
         </is>
       </c>
       <c r="B1" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" ht="15.6" customHeight="1">
@@ -1756,20 +1786,36 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>2022年11月17日23点42分06秒</t>
+          <t>2022年11月18日22点35分21秒</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>做饭</t>
+          <t>做菜</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>2</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>2022年11月18日22点35分45秒</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>洗碗</t>
         </is>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>